--- a/code/out/stats_network_result.xlsx
+++ b/code/out/stats_network_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,25 +486,30 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>deg_from_mode</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>deg_from_max_names</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>odc_from_max</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>odc_from_min</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>odc_from_mean</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>odc_from_median</t>
         </is>
@@ -547,19 +552,24 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>[4, 14, 24, 185, 291, 535]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>['architecture']</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.4231219283875497</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.0002340276152586005</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.06973632888680864</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.04247601216943599</v>
       </c>
     </row>
@@ -600,19 +610,24 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>['RM19']</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.1937126411334957</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.0002213858755811379</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.005085991128383949</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.001328315253486827</v>
       </c>
     </row>
@@ -653,19 +668,24 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>['Palais-Royal']</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.2055933484504913</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.0001889644746787604</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.001399993509628061</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>0.0001889644746787604</v>
       </c>
     </row>
